--- a/biology/Zoologie/Brindabellaspis/Brindabellaspis.xlsx
+++ b/biology/Zoologie/Brindabellaspis/Brindabellaspis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brindabellaspis stensioi
 Brindabellaspis est un genre éteint de placodermes basaux, qui vivait au début du Dévonien. C'est donc un des premiers gnathostomes. Comme ses ancêtres agnathes, il portait un solide bouclier de plaques osseuses, conservé par ses descendants, les placodermes plus évolués.
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Brindabellaspis mesurait environ 40 centimètres de long.
 </t>
